--- a/Decison matrix.xlsx
+++ b/Decison matrix.xlsx
@@ -541,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="C2">
-        <v>77.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2">
-        <v>137.0</v>
+        <v>35.0</v>
       </c>
       <c r="E2">
-        <v>133.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2">
-        <v>172.0</v>
+        <v>22.0</v>
       </c>
       <c r="G2">
-        <v>167.0</v>
+        <v>45.0</v>
       </c>
       <c r="H2">
-        <v>51.0</v>
+        <v>10.0</v>
       </c>
       <c r="I2">
-        <v>29.0</v>
+        <v>43.0</v>
       </c>
       <c r="J2">
-        <v>83.0</v>
+        <v>49.0</v>
       </c>
       <c r="K2">
-        <v>55.0</v>
+        <v>19.0</v>
       </c>
       <c r="L2">
-        <v>144.0</v>
+        <v>41.0</v>
       </c>
       <c r="M2">
-        <v>188.0</v>
+        <v>15.0</v>
       </c>
       <c r="N2">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="O2">
-        <v>178.0</v>
+        <v>28.0</v>
       </c>
       <c r="P2">
-        <v>186.0</v>
+        <v>47.0</v>
       </c>
       <c r="Q2">
-        <v>113.0</v>
+        <v>18.0</v>
       </c>
       <c r="R2">
-        <v>172.0</v>
+        <v>26.0</v>
       </c>
       <c r="S2">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="T2">
-        <v>187.0</v>
+        <v>46.0</v>
       </c>
       <c r="U2">
-        <v>195.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -606,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>168.0</v>
+        <v>26.0</v>
       </c>
       <c r="C3">
-        <v>143.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3">
-        <v>96.0</v>
+        <v>16.0</v>
       </c>
       <c r="E3">
-        <v>180.0</v>
+        <v>25.0</v>
       </c>
       <c r="F3">
-        <v>172.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3">
-        <v>155.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3">
-        <v>187.0</v>
+        <v>20.0</v>
       </c>
       <c r="I3">
-        <v>132.0</v>
+        <v>12.0</v>
       </c>
       <c r="J3">
-        <v>113.0</v>
+        <v>30.0</v>
       </c>
       <c r="K3">
-        <v>134.0</v>
+        <v>27.0</v>
       </c>
       <c r="L3">
-        <v>90.0</v>
+        <v>46.0</v>
       </c>
       <c r="M3">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
       <c r="N3">
-        <v>153.0</v>
+        <v>13.0</v>
       </c>
       <c r="O3">
-        <v>42.0</v>
+        <v>29.0</v>
       </c>
       <c r="P3">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q3">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="R3">
-        <v>79.0</v>
+        <v>30.0</v>
       </c>
       <c r="S3">
-        <v>141.0</v>
+        <v>16.0</v>
       </c>
       <c r="T3">
-        <v>56.0</v>
+        <v>39.0</v>
       </c>
       <c r="U3">
-        <v>185.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -671,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>72.0</v>
+        <v>27.0</v>
       </c>
       <c r="C4">
-        <v>66.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4">
-        <v>101.0</v>
+        <v>39.0</v>
       </c>
       <c r="E4">
-        <v>157.0</v>
+        <v>18.0</v>
       </c>
       <c r="F4">
-        <v>66.0</v>
+        <v>39.0</v>
       </c>
       <c r="G4">
-        <v>70.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4">
-        <v>79.0</v>
+        <v>30.0</v>
       </c>
       <c r="I4">
-        <v>99.0</v>
+        <v>35.0</v>
       </c>
       <c r="J4">
-        <v>63.0</v>
+        <v>34.0</v>
       </c>
       <c r="K4">
-        <v>52.0</v>
+        <v>27.0</v>
       </c>
       <c r="L4">
-        <v>16.0</v>
+        <v>45.0</v>
       </c>
       <c r="M4">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="N4">
-        <v>191.0</v>
+        <v>46.0</v>
       </c>
       <c r="O4">
-        <v>141.0</v>
+        <v>37.0</v>
       </c>
       <c r="P4">
-        <v>91.0</v>
+        <v>45.0</v>
       </c>
       <c r="Q4">
-        <v>179.0</v>
+        <v>30.0</v>
       </c>
       <c r="R4">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="S4">
-        <v>159.0</v>
+        <v>39.0</v>
       </c>
       <c r="T4">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="U4">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -736,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>169.0</v>
+        <v>24.0</v>
       </c>
       <c r="C5">
-        <v>85.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5">
-        <v>93.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5">
-        <v>62.0</v>
+        <v>40.0</v>
       </c>
       <c r="F5">
-        <v>194.0</v>
+        <v>22.0</v>
       </c>
       <c r="G5">
-        <v>72.0</v>
+        <v>17.0</v>
       </c>
       <c r="H5">
-        <v>67.0</v>
+        <v>30.0</v>
       </c>
       <c r="I5">
-        <v>148.0</v>
+        <v>24.0</v>
       </c>
       <c r="J5">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="K5">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="L5">
-        <v>66.0</v>
+        <v>22.0</v>
       </c>
       <c r="M5">
-        <v>186.0</v>
+        <v>34.0</v>
       </c>
       <c r="N5">
         <v>40.0</v>
       </c>
       <c r="O5">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="P5">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q5">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="R5">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="S5">
-        <v>71.0</v>
+        <v>34.0</v>
       </c>
       <c r="T5">
-        <v>85.0</v>
+        <v>40.0</v>
       </c>
       <c r="U5">
-        <v>81.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -801,64 +801,64 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>194.0</v>
+        <v>24.0</v>
       </c>
       <c r="C6">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6">
-        <v>73.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6">
-        <v>100.0</v>
+        <v>38.0</v>
       </c>
       <c r="F6">
-        <v>64.0</v>
+        <v>48.0</v>
       </c>
       <c r="G6">
-        <v>149.0</v>
+        <v>24.0</v>
       </c>
       <c r="H6">
+        <v>31.0</v>
+      </c>
+      <c r="I6">
+        <v>22.0</v>
+      </c>
+      <c r="J6">
+        <v>30.0</v>
+      </c>
+      <c r="K6">
+        <v>37.0</v>
+      </c>
+      <c r="L6">
+        <v>27.0</v>
+      </c>
+      <c r="M6">
+        <v>43.0</v>
+      </c>
+      <c r="N6">
         <v>34.0</v>
       </c>
-      <c r="I6">
-        <v>138.0</v>
-      </c>
-      <c r="J6">
-        <v>106.0</v>
-      </c>
-      <c r="K6">
-        <v>41.0</v>
-      </c>
-      <c r="L6">
-        <v>198.0</v>
-      </c>
-      <c r="M6">
-        <v>48.0</v>
-      </c>
-      <c r="N6">
-        <v>79.0</v>
-      </c>
       <c r="O6">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="P6">
-        <v>121.0</v>
+        <v>34.0</v>
       </c>
       <c r="Q6">
-        <v>77.0</v>
+        <v>42.0</v>
       </c>
       <c r="R6">
-        <v>162.0</v>
+        <v>43.0</v>
       </c>
       <c r="S6">
-        <v>194.0</v>
+        <v>11.0</v>
       </c>
       <c r="T6">
-        <v>84.0</v>
+        <v>30.0</v>
       </c>
       <c r="U6">
-        <v>119.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -941,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
+        <v>14.0</v>
+      </c>
+      <c r="C2">
+        <v>21.0</v>
+      </c>
+      <c r="D2">
         <v>24.0</v>
       </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>82.0</v>
-      </c>
       <c r="E2">
-        <v>191.0</v>
+        <v>47.0</v>
       </c>
       <c r="F2">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="G2">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="H2">
-        <v>120.0</v>
+        <v>27.0</v>
       </c>
       <c r="I2">
-        <v>179.0</v>
+        <v>19.0</v>
       </c>
       <c r="J2">
-        <v>66.0</v>
+        <v>31.0</v>
       </c>
       <c r="K2">
-        <v>108.0</v>
+        <v>28.0</v>
       </c>
       <c r="L2">
+        <v>38.0</v>
+      </c>
+      <c r="M2">
+        <v>36.0</v>
+      </c>
+      <c r="N2">
+        <v>12.0</v>
+      </c>
+      <c r="O2">
+        <v>22.0</v>
+      </c>
+      <c r="P2">
         <v>34.0</v>
       </c>
-      <c r="M2">
-        <v>165.0</v>
-      </c>
-      <c r="N2">
-        <v>127.0</v>
-      </c>
-      <c r="O2">
-        <v>86.0</v>
-      </c>
-      <c r="P2">
-        <v>21.0</v>
-      </c>
       <c r="Q2">
-        <v>75.0</v>
+        <v>43.0</v>
       </c>
       <c r="R2">
-        <v>68.0</v>
+        <v>40.0</v>
       </c>
       <c r="S2">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="T2">
-        <v>97.0</v>
+        <v>14.0</v>
       </c>
       <c r="U2">
-        <v>200.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1006,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>97.0</v>
+        <v>46.0</v>
       </c>
       <c r="C3">
-        <v>196.0</v>
+        <v>17.0</v>
       </c>
       <c r="D3">
+        <v>41.0</v>
+      </c>
+      <c r="E3">
+        <v>44.0</v>
+      </c>
+      <c r="F3">
+        <v>18.0</v>
+      </c>
+      <c r="G3">
+        <v>49.0</v>
+      </c>
+      <c r="H3">
+        <v>43.0</v>
+      </c>
+      <c r="I3">
+        <v>46.0</v>
+      </c>
+      <c r="J3">
+        <v>48.0</v>
+      </c>
+      <c r="K3">
+        <v>40.0</v>
+      </c>
+      <c r="L3">
+        <v>11.0</v>
+      </c>
+      <c r="M3">
+        <v>38.0</v>
+      </c>
+      <c r="N3">
+        <v>31.0</v>
+      </c>
+      <c r="O3">
+        <v>13.0</v>
+      </c>
+      <c r="P3">
         <v>33.0</v>
       </c>
-      <c r="E3">
-        <v>78.0</v>
-      </c>
-      <c r="F3">
-        <v>151.0</v>
-      </c>
-      <c r="G3">
-        <v>160.0</v>
-      </c>
-      <c r="H3">
-        <v>5.0</v>
-      </c>
-      <c r="I3">
-        <v>4.0</v>
-      </c>
-      <c r="J3">
-        <v>43.0</v>
-      </c>
-      <c r="K3">
-        <v>197.0</v>
-      </c>
-      <c r="L3">
-        <v>151.0</v>
-      </c>
-      <c r="M3">
-        <v>147.0</v>
-      </c>
-      <c r="N3">
-        <v>43.0</v>
-      </c>
-      <c r="O3">
-        <v>50.0</v>
-      </c>
-      <c r="P3">
-        <v>189.0</v>
-      </c>
       <c r="Q3">
-        <v>151.0</v>
+        <v>32.0</v>
       </c>
       <c r="R3">
-        <v>142.0</v>
+        <v>15.0</v>
       </c>
       <c r="S3">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="T3">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="U3">
-        <v>184.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1071,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>113.0</v>
+        <v>16.0</v>
       </c>
       <c r="C4">
-        <v>141.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4">
-        <v>145.0</v>
+        <v>17.0</v>
       </c>
       <c r="E4">
+        <v>29.0</v>
+      </c>
+      <c r="F4">
+        <v>37.0</v>
+      </c>
+      <c r="G4">
+        <v>46.0</v>
+      </c>
+      <c r="H4">
+        <v>28.0</v>
+      </c>
+      <c r="I4">
+        <v>10.0</v>
+      </c>
+      <c r="J4">
+        <v>29.0</v>
+      </c>
+      <c r="K4">
+        <v>49.0</v>
+      </c>
+      <c r="L4">
+        <v>32.0</v>
+      </c>
+      <c r="M4">
         <v>23.0</v>
       </c>
-      <c r="F4">
-        <v>129.0</v>
-      </c>
-      <c r="G4">
-        <v>34.0</v>
-      </c>
-      <c r="H4">
-        <v>10.0</v>
-      </c>
-      <c r="I4">
-        <v>36.0</v>
-      </c>
-      <c r="J4">
-        <v>64.0</v>
-      </c>
-      <c r="K4">
-        <v>45.0</v>
-      </c>
-      <c r="L4">
-        <v>102.0</v>
-      </c>
-      <c r="M4">
-        <v>86.0</v>
-      </c>
       <c r="N4">
-        <v>151.0</v>
+        <v>18.0</v>
       </c>
       <c r="O4">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="P4">
-        <v>194.0</v>
+        <v>48.0</v>
       </c>
       <c r="Q4">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="R4">
-        <v>68.0</v>
+        <v>24.0</v>
       </c>
       <c r="S4">
-        <v>132.0</v>
+        <v>14.0</v>
       </c>
       <c r="T4">
-        <v>10.0</v>
+        <v>46.0</v>
       </c>
       <c r="U4">
-        <v>109.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1136,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>135.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5">
-        <v>158.0</v>
+        <v>42.0</v>
       </c>
       <c r="E5">
-        <v>62.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5">
-        <v>64.0</v>
+        <v>40.0</v>
       </c>
       <c r="G5">
-        <v>79.0</v>
+        <v>48.0</v>
       </c>
       <c r="H5">
-        <v>193.0</v>
+        <v>21.0</v>
       </c>
       <c r="I5">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5">
-        <v>170.0</v>
+        <v>31.0</v>
       </c>
       <c r="K5">
+        <v>41.0</v>
+      </c>
+      <c r="L5">
+        <v>21.0</v>
+      </c>
+      <c r="M5">
         <v>26.0</v>
       </c>
-      <c r="L5">
-        <v>12.0</v>
-      </c>
-      <c r="M5">
-        <v>90.0</v>
-      </c>
       <c r="N5">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
       <c r="O5">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="P5">
+        <v>30.0</v>
+      </c>
+      <c r="Q5">
+        <v>44.0</v>
+      </c>
+      <c r="R5">
         <v>50.0</v>
       </c>
-      <c r="Q5">
-        <v>156.0</v>
-      </c>
-      <c r="R5">
-        <v>130.0</v>
-      </c>
       <c r="S5">
-        <v>112.0</v>
+        <v>17.0</v>
       </c>
       <c r="T5">
-        <v>140.0</v>
+        <v>20.0</v>
       </c>
       <c r="U5">
-        <v>177.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1201,64 +1201,64 @@
         <v>24</v>
       </c>
       <c r="B6">
+        <v>49.0</v>
+      </c>
+      <c r="C6">
+        <v>15.0</v>
+      </c>
+      <c r="D6">
+        <v>38.0</v>
+      </c>
+      <c r="E6">
+        <v>16.0</v>
+      </c>
+      <c r="F6">
+        <v>12.0</v>
+      </c>
+      <c r="G6">
+        <v>17.0</v>
+      </c>
+      <c r="H6">
+        <v>15.0</v>
+      </c>
+      <c r="I6">
+        <v>22.0</v>
+      </c>
+      <c r="J6">
+        <v>12.0</v>
+      </c>
+      <c r="K6">
+        <v>45.0</v>
+      </c>
+      <c r="L6">
+        <v>42.0</v>
+      </c>
+      <c r="M6">
+        <v>31.0</v>
+      </c>
+      <c r="N6">
+        <v>41.0</v>
+      </c>
+      <c r="O6">
+        <v>29.0</v>
+      </c>
+      <c r="P6">
+        <v>11.0</v>
+      </c>
+      <c r="Q6">
+        <v>47.0</v>
+      </c>
+      <c r="R6">
+        <v>31.0</v>
+      </c>
+      <c r="S6">
+        <v>28.0</v>
+      </c>
+      <c r="T6">
         <v>33.0</v>
       </c>
-      <c r="C6">
-        <v>25.0</v>
-      </c>
-      <c r="D6">
-        <v>130.0</v>
-      </c>
-      <c r="E6">
-        <v>28.0</v>
-      </c>
-      <c r="F6">
-        <v>111.0</v>
-      </c>
-      <c r="G6">
+      <c r="U6">
         <v>31.0</v>
-      </c>
-      <c r="H6">
-        <v>128.0</v>
-      </c>
-      <c r="I6">
-        <v>133.0</v>
-      </c>
-      <c r="J6">
-        <v>182.0</v>
-      </c>
-      <c r="K6">
-        <v>111.0</v>
-      </c>
-      <c r="L6">
-        <v>192.0</v>
-      </c>
-      <c r="M6">
-        <v>104.0</v>
-      </c>
-      <c r="N6">
-        <v>76.0</v>
-      </c>
-      <c r="O6">
-        <v>67.0</v>
-      </c>
-      <c r="P6">
-        <v>187.0</v>
-      </c>
-      <c r="Q6">
-        <v>138.0</v>
-      </c>
-      <c r="R6">
-        <v>137.0</v>
-      </c>
-      <c r="S6">
-        <v>70.0</v>
-      </c>
-      <c r="T6">
-        <v>99.0</v>
-      </c>
-      <c r="U6">
-        <v>171.0</v>
       </c>
     </row>
   </sheetData>
@@ -1341,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>178.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2">
-        <v>192.0</v>
+        <v>39.0</v>
       </c>
       <c r="D2">
-        <v>10.0</v>
+        <v>38.0</v>
       </c>
       <c r="E2">
-        <v>112.0</v>
+        <v>40.0</v>
       </c>
       <c r="F2">
-        <v>157.0</v>
+        <v>43.0</v>
       </c>
       <c r="G2">
-        <v>171.0</v>
+        <v>26.0</v>
       </c>
       <c r="H2">
-        <v>196.0</v>
+        <v>38.0</v>
       </c>
       <c r="I2">
-        <v>51.0</v>
+        <v>12.0</v>
       </c>
       <c r="J2">
+        <v>32.0</v>
+      </c>
+      <c r="K2">
+        <v>21.0</v>
+      </c>
+      <c r="L2">
+        <v>11.0</v>
+      </c>
+      <c r="M2">
+        <v>49.0</v>
+      </c>
+      <c r="N2">
+        <v>50.0</v>
+      </c>
+      <c r="O2">
         <v>12.0</v>
       </c>
-      <c r="K2">
-        <v>190.0</v>
-      </c>
-      <c r="L2">
-        <v>192.0</v>
-      </c>
-      <c r="M2">
-        <v>143.0</v>
-      </c>
-      <c r="N2">
-        <v>182.0</v>
-      </c>
-      <c r="O2">
-        <v>149.0</v>
-      </c>
       <c r="P2">
-        <v>62.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q2">
-        <v>107.0</v>
+        <v>17.0</v>
       </c>
       <c r="R2">
-        <v>191.0</v>
+        <v>48.0</v>
       </c>
       <c r="S2">
-        <v>147.0</v>
+        <v>46.0</v>
       </c>
       <c r="T2">
-        <v>182.0</v>
+        <v>23.0</v>
       </c>
       <c r="U2">
-        <v>107.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1406,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>95.0</v>
+        <v>28.0</v>
       </c>
       <c r="C3">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3">
-        <v>116.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3">
-        <v>126.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3">
-        <v>65.0</v>
+        <v>35.0</v>
       </c>
       <c r="G3">
-        <v>120.0</v>
+        <v>25.0</v>
       </c>
       <c r="H3">
-        <v>192.0</v>
+        <v>20.0</v>
       </c>
       <c r="I3">
-        <v>191.0</v>
+        <v>15.0</v>
       </c>
       <c r="J3">
-        <v>174.0</v>
+        <v>23.0</v>
       </c>
       <c r="K3">
-        <v>88.0</v>
+        <v>17.0</v>
       </c>
       <c r="L3">
-        <v>113.0</v>
+        <v>19.0</v>
       </c>
       <c r="M3">
-        <v>132.0</v>
+        <v>23.0</v>
       </c>
       <c r="N3">
-        <v>199.0</v>
+        <v>45.0</v>
       </c>
       <c r="O3">
-        <v>76.0</v>
+        <v>14.0</v>
       </c>
       <c r="P3">
-        <v>138.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q3">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="R3">
-        <v>151.0</v>
+        <v>21.0</v>
       </c>
       <c r="S3">
-        <v>152.0</v>
+        <v>17.0</v>
       </c>
       <c r="T3">
-        <v>88.0</v>
+        <v>44.0</v>
       </c>
       <c r="U3">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1471,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>28.0</v>
+        <v>38.0</v>
       </c>
       <c r="C4">
-        <v>169.0</v>
+        <v>48.0</v>
       </c>
       <c r="D4">
+        <v>20.0</v>
+      </c>
+      <c r="E4">
         <v>40.0</v>
       </c>
-      <c r="E4">
-        <v>30.0</v>
-      </c>
       <c r="F4">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="H4">
-        <v>71.0</v>
+        <v>14.0</v>
       </c>
       <c r="I4">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J4">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="K4">
-        <v>45.0</v>
+        <v>12.0</v>
       </c>
       <c r="L4">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
       <c r="M4">
-        <v>122.0</v>
+        <v>18.0</v>
       </c>
       <c r="N4">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="O4">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="P4">
-        <v>83.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q4">
-        <v>165.0</v>
+        <v>31.0</v>
       </c>
       <c r="R4">
-        <v>192.0</v>
+        <v>46.0</v>
       </c>
       <c r="S4">
-        <v>85.0</v>
+        <v>46.0</v>
       </c>
       <c r="T4">
-        <v>176.0</v>
+        <v>25.0</v>
       </c>
       <c r="U4">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1536,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>177.0</v>
+        <v>48.0</v>
       </c>
       <c r="C5">
-        <v>165.0</v>
+        <v>22.0</v>
       </c>
       <c r="D5">
+        <v>24.0</v>
+      </c>
+      <c r="E5">
+        <v>29.0</v>
+      </c>
+      <c r="F5">
+        <v>11.0</v>
+      </c>
+      <c r="G5">
+        <v>24.0</v>
+      </c>
+      <c r="H5">
         <v>40.0</v>
       </c>
-      <c r="E5">
-        <v>189.0</v>
-      </c>
-      <c r="F5">
-        <v>163.0</v>
-      </c>
-      <c r="G5">
-        <v>185.0</v>
-      </c>
-      <c r="H5">
-        <v>97.0</v>
-      </c>
       <c r="I5">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="J5">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="K5">
-        <v>84.0</v>
+        <v>50.0</v>
       </c>
       <c r="L5">
-        <v>67.0</v>
+        <v>20.0</v>
       </c>
       <c r="M5">
+        <v>50.0</v>
+      </c>
+      <c r="N5">
+        <v>33.0</v>
+      </c>
+      <c r="O5">
+        <v>50.0</v>
+      </c>
+      <c r="P5">
+        <v>23.0</v>
+      </c>
+      <c r="Q5">
+        <v>39.0</v>
+      </c>
+      <c r="R5">
+        <v>11.0</v>
+      </c>
+      <c r="S5">
+        <v>34.0</v>
+      </c>
+      <c r="T5">
         <v>44.0</v>
       </c>
-      <c r="N5">
-        <v>118.0</v>
-      </c>
-      <c r="O5">
-        <v>141.0</v>
-      </c>
-      <c r="P5">
-        <v>126.0</v>
-      </c>
-      <c r="Q5">
-        <v>178.0</v>
-      </c>
-      <c r="R5">
+      <c r="U5">
         <v>46.0</v>
-      </c>
-      <c r="S5">
-        <v>16.0</v>
-      </c>
-      <c r="T5">
-        <v>170.0</v>
-      </c>
-      <c r="U5">
-        <v>107.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1601,64 +1601,64 @@
         <v>24</v>
       </c>
       <c r="B6">
+        <v>34.0</v>
+      </c>
+      <c r="C6">
+        <v>10.0</v>
+      </c>
+      <c r="D6">
+        <v>37.0</v>
+      </c>
+      <c r="E6">
+        <v>19.0</v>
+      </c>
+      <c r="F6">
+        <v>21.0</v>
+      </c>
+      <c r="G6">
+        <v>27.0</v>
+      </c>
+      <c r="H6">
+        <v>12.0</v>
+      </c>
+      <c r="I6">
+        <v>37.0</v>
+      </c>
+      <c r="J6">
+        <v>35.0</v>
+      </c>
+      <c r="K6">
+        <v>38.0</v>
+      </c>
+      <c r="L6">
+        <v>28.0</v>
+      </c>
+      <c r="M6">
+        <v>25.0</v>
+      </c>
+      <c r="N6">
         <v>11.0</v>
       </c>
-      <c r="C6">
-        <v>190.0</v>
-      </c>
-      <c r="D6">
-        <v>189.0</v>
-      </c>
-      <c r="E6">
-        <v>170.0</v>
-      </c>
-      <c r="F6">
-        <v>111.0</v>
-      </c>
-      <c r="G6">
-        <v>21.0</v>
-      </c>
-      <c r="H6">
-        <v>124.0</v>
-      </c>
-      <c r="I6">
-        <v>106.0</v>
-      </c>
-      <c r="J6">
-        <v>109.0</v>
-      </c>
-      <c r="K6">
-        <v>31.0</v>
-      </c>
-      <c r="L6">
-        <v>139.0</v>
-      </c>
-      <c r="M6">
-        <v>199.0</v>
-      </c>
-      <c r="N6">
-        <v>174.0</v>
-      </c>
       <c r="O6">
-        <v>165.0</v>
+        <v>39.0</v>
       </c>
       <c r="P6">
-        <v>198.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q6">
+        <v>43.0</v>
+      </c>
+      <c r="R6">
+        <v>14.0</v>
+      </c>
+      <c r="S6">
+        <v>14.0</v>
+      </c>
+      <c r="T6">
+        <v>24.0</v>
+      </c>
+      <c r="U6">
         <v>49.0</v>
-      </c>
-      <c r="R6">
-        <v>189.0</v>
-      </c>
-      <c r="S6">
-        <v>199.0</v>
-      </c>
-      <c r="T6">
-        <v>144.0</v>
-      </c>
-      <c r="U6">
-        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -1741,61 +1741,61 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>195.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2">
-        <v>112.0</v>
+        <v>49.0</v>
       </c>
       <c r="D2">
-        <v>83.0</v>
+        <v>33.0</v>
       </c>
       <c r="E2">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="F2">
-        <v>190.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2">
-        <v>68.0</v>
+        <v>34.0</v>
       </c>
       <c r="H2">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="I2">
-        <v>112.0</v>
+        <v>25.0</v>
       </c>
       <c r="J2">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="K2">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="L2">
+        <v>23.0</v>
+      </c>
+      <c r="M2">
         <v>33.0</v>
       </c>
-      <c r="M2">
-        <v>64.0</v>
-      </c>
       <c r="N2">
-        <v>193.0</v>
+        <v>49.0</v>
       </c>
       <c r="O2">
-        <v>58.0</v>
+        <v>13.0</v>
       </c>
       <c r="P2">
-        <v>111.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q2">
-        <v>190.0</v>
+        <v>50.0</v>
       </c>
       <c r="R2">
-        <v>151.0</v>
+        <v>46.0</v>
       </c>
       <c r="S2">
-        <v>75.0</v>
+        <v>47.0</v>
       </c>
       <c r="T2">
-        <v>126.0</v>
+        <v>17.0</v>
       </c>
       <c r="U2">
         <v>34.0</v>
@@ -1806,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>164.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3">
-        <v>128.0</v>
+        <v>44.0</v>
       </c>
       <c r="D3">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="E3">
-        <v>142.0</v>
+        <v>36.0</v>
       </c>
       <c r="F3">
-        <v>24.0</v>
+        <v>49.0</v>
       </c>
       <c r="G3">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="H3">
-        <v>157.0</v>
+        <v>31.0</v>
       </c>
       <c r="I3">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
       <c r="J3">
-        <v>158.0</v>
+        <v>22.0</v>
       </c>
       <c r="K3">
-        <v>95.0</v>
+        <v>29.0</v>
       </c>
       <c r="L3">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="M3">
-        <v>172.0</v>
+        <v>45.0</v>
       </c>
       <c r="N3">
-        <v>167.0</v>
+        <v>49.0</v>
       </c>
       <c r="O3">
-        <v>102.0</v>
+        <v>38.0</v>
       </c>
       <c r="P3">
-        <v>149.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q3">
-        <v>194.0</v>
+        <v>20.0</v>
       </c>
       <c r="R3">
-        <v>157.0</v>
+        <v>45.0</v>
       </c>
       <c r="S3">
-        <v>108.0</v>
+        <v>37.0</v>
       </c>
       <c r="T3">
-        <v>137.0</v>
+        <v>14.0</v>
       </c>
       <c r="U3">
-        <v>109.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1871,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>152.0</v>
+        <v>19.0</v>
       </c>
       <c r="C4">
-        <v>187.0</v>
+        <v>31.0</v>
       </c>
       <c r="D4">
-        <v>110.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4">
-        <v>72.0</v>
+        <v>29.0</v>
       </c>
       <c r="G4">
-        <v>169.0</v>
+        <v>47.0</v>
       </c>
       <c r="H4">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="I4">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="J4">
-        <v>194.0</v>
+        <v>49.0</v>
       </c>
       <c r="K4">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="L4">
-        <v>148.0</v>
+        <v>12.0</v>
       </c>
       <c r="M4">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="N4">
-        <v>101.0</v>
+        <v>15.0</v>
       </c>
       <c r="O4">
-        <v>186.0</v>
+        <v>25.0</v>
       </c>
       <c r="P4">
-        <v>95.0</v>
+        <v>41.0</v>
       </c>
       <c r="Q4">
-        <v>112.0</v>
+        <v>26.0</v>
       </c>
       <c r="R4">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="S4">
-        <v>132.0</v>
+        <v>35.0</v>
       </c>
       <c r="T4">
-        <v>180.0</v>
+        <v>23.0</v>
       </c>
       <c r="U4">
-        <v>2.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1936,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>142.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5">
-        <v>173.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5">
+        <v>13.0</v>
+      </c>
+      <c r="E5">
+        <v>38.0</v>
+      </c>
+      <c r="F5">
+        <v>26.0</v>
+      </c>
+      <c r="G5">
+        <v>48.0</v>
+      </c>
+      <c r="H5">
+        <v>10.0</v>
+      </c>
+      <c r="I5">
+        <v>29.0</v>
+      </c>
+      <c r="J5">
+        <v>39.0</v>
+      </c>
+      <c r="K5">
         <v>46.0</v>
       </c>
-      <c r="E5">
-        <v>106.0</v>
-      </c>
-      <c r="F5">
-        <v>2.0</v>
-      </c>
-      <c r="G5">
-        <v>42.0</v>
-      </c>
-      <c r="H5">
-        <v>6.0</v>
-      </c>
-      <c r="I5">
-        <v>87.0</v>
-      </c>
-      <c r="J5">
-        <v>20.0</v>
-      </c>
-      <c r="K5">
-        <v>167.0</v>
-      </c>
       <c r="L5">
-        <v>135.0</v>
+        <v>41.0</v>
       </c>
       <c r="M5">
-        <v>128.0</v>
+        <v>22.0</v>
       </c>
       <c r="N5">
-        <v>97.0</v>
+        <v>44.0</v>
       </c>
       <c r="O5">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="P5">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q5">
-        <v>167.0</v>
+        <v>26.0</v>
       </c>
       <c r="R5">
-        <v>179.0</v>
+        <v>26.0</v>
       </c>
       <c r="S5">
-        <v>79.0</v>
+        <v>37.0</v>
       </c>
       <c r="T5">
-        <v>134.0</v>
+        <v>39.0</v>
       </c>
       <c r="U5">
-        <v>104.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2001,64 +2001,64 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>117.0</v>
+        <v>30.0</v>
       </c>
       <c r="C6">
-        <v>89.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6">
-        <v>131.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6">
-        <v>188.0</v>
+        <v>48.0</v>
       </c>
       <c r="F6">
-        <v>2.0</v>
+        <v>43.0</v>
       </c>
       <c r="G6">
-        <v>95.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6">
-        <v>152.0</v>
+        <v>22.0</v>
       </c>
       <c r="I6">
+        <v>30.0</v>
+      </c>
+      <c r="J6">
+        <v>15.0</v>
+      </c>
+      <c r="K6">
+        <v>16.0</v>
+      </c>
+      <c r="L6">
+        <v>45.0</v>
+      </c>
+      <c r="M6">
+        <v>20.0</v>
+      </c>
+      <c r="N6">
+        <v>18.0</v>
+      </c>
+      <c r="O6">
+        <v>18.0</v>
+      </c>
+      <c r="P6">
+        <v>38.0</v>
+      </c>
+      <c r="Q6">
+        <v>41.0</v>
+      </c>
+      <c r="R6">
+        <v>27.0</v>
+      </c>
+      <c r="S6">
+        <v>28.0</v>
+      </c>
+      <c r="T6">
+        <v>17.0</v>
+      </c>
+      <c r="U6">
         <v>13.0</v>
-      </c>
-      <c r="J6">
-        <v>118.0</v>
-      </c>
-      <c r="K6">
-        <v>194.0</v>
-      </c>
-      <c r="L6">
-        <v>132.0</v>
-      </c>
-      <c r="M6">
-        <v>156.0</v>
-      </c>
-      <c r="N6">
-        <v>70.0</v>
-      </c>
-      <c r="O6">
-        <v>110.0</v>
-      </c>
-      <c r="P6">
-        <v>101.0</v>
-      </c>
-      <c r="Q6">
-        <v>49.0</v>
-      </c>
-      <c r="R6">
-        <v>53.0</v>
-      </c>
-      <c r="S6">
-        <v>41.0</v>
-      </c>
-      <c r="T6">
-        <v>69.0</v>
-      </c>
-      <c r="U6">
-        <v>34.0</v>
       </c>
     </row>
   </sheetData>
@@ -2141,64 +2141,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>119.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2">
+        <v>22.0</v>
+      </c>
+      <c r="D2">
+        <v>48.0</v>
+      </c>
+      <c r="E2">
+        <v>32.0</v>
+      </c>
+      <c r="F2">
+        <v>15.0</v>
+      </c>
+      <c r="G2">
+        <v>22.0</v>
+      </c>
+      <c r="H2">
+        <v>16.0</v>
+      </c>
+      <c r="I2">
+        <v>45.0</v>
+      </c>
+      <c r="J2">
+        <v>47.0</v>
+      </c>
+      <c r="K2">
+        <v>41.0</v>
+      </c>
+      <c r="L2">
+        <v>35.0</v>
+      </c>
+      <c r="M2">
+        <v>12.0</v>
+      </c>
+      <c r="N2">
         <v>13.0</v>
       </c>
-      <c r="D2">
+      <c r="O2">
+        <v>32.0</v>
+      </c>
+      <c r="P2">
+        <v>13.0</v>
+      </c>
+      <c r="Q2">
+        <v>39.0</v>
+      </c>
+      <c r="R2">
+        <v>20.0</v>
+      </c>
+      <c r="S2">
+        <v>12.0</v>
+      </c>
+      <c r="T2">
+        <v>27.0</v>
+      </c>
+      <c r="U2">
         <v>35.0</v>
-      </c>
-      <c r="E2">
-        <v>190.0</v>
-      </c>
-      <c r="F2">
-        <v>179.0</v>
-      </c>
-      <c r="G2">
-        <v>73.0</v>
-      </c>
-      <c r="H2">
-        <v>121.0</v>
-      </c>
-      <c r="I2">
-        <v>42.0</v>
-      </c>
-      <c r="J2">
-        <v>196.0</v>
-      </c>
-      <c r="K2">
-        <v>4.0</v>
-      </c>
-      <c r="L2">
-        <v>88.0</v>
-      </c>
-      <c r="M2">
-        <v>178.0</v>
-      </c>
-      <c r="N2">
-        <v>157.0</v>
-      </c>
-      <c r="O2">
-        <v>156.0</v>
-      </c>
-      <c r="P2">
-        <v>97.0</v>
-      </c>
-      <c r="Q2">
-        <v>142.0</v>
-      </c>
-      <c r="R2">
-        <v>141.0</v>
-      </c>
-      <c r="S2">
-        <v>154.0</v>
-      </c>
-      <c r="T2">
-        <v>124.0</v>
-      </c>
-      <c r="U2">
-        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2206,64 +2206,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>144.0</v>
+        <v>35.0</v>
       </c>
       <c r="C3">
-        <v>11.0</v>
+        <v>49.0</v>
       </c>
       <c r="D3">
-        <v>135.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="F3">
-        <v>118.0</v>
+        <v>23.0</v>
       </c>
       <c r="G3">
-        <v>160.0</v>
+        <v>37.0</v>
       </c>
       <c r="H3">
-        <v>133.0</v>
+        <v>15.0</v>
       </c>
       <c r="I3">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="J3">
-        <v>105.0</v>
+        <v>13.0</v>
       </c>
       <c r="K3">
-        <v>150.0</v>
+        <v>39.0</v>
       </c>
       <c r="L3">
-        <v>149.0</v>
+        <v>37.0</v>
       </c>
       <c r="M3">
-        <v>120.0</v>
+        <v>37.0</v>
       </c>
       <c r="N3">
-        <v>172.0</v>
+        <v>33.0</v>
       </c>
       <c r="O3">
-        <v>84.0</v>
+        <v>44.0</v>
       </c>
       <c r="P3">
-        <v>10.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q3">
-        <v>41.0</v>
+        <v>13.0</v>
       </c>
       <c r="R3">
-        <v>78.0</v>
+        <v>27.0</v>
       </c>
       <c r="S3">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="T3">
-        <v>185.0</v>
+        <v>18.0</v>
       </c>
       <c r="U3">
-        <v>198.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2271,64 +2271,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>187.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4">
-        <v>133.0</v>
+        <v>50.0</v>
       </c>
       <c r="D4">
-        <v>59.0</v>
+        <v>31.0</v>
       </c>
       <c r="E4">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="F4">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="G4">
-        <v>195.0</v>
+        <v>40.0</v>
       </c>
       <c r="H4">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
       <c r="I4">
-        <v>114.0</v>
+        <v>39.0</v>
       </c>
       <c r="J4">
-        <v>112.0</v>
+        <v>23.0</v>
       </c>
       <c r="K4">
-        <v>115.0</v>
+        <v>14.0</v>
       </c>
       <c r="L4">
-        <v>160.0</v>
+        <v>39.0</v>
       </c>
       <c r="M4">
-        <v>95.0</v>
+        <v>49.0</v>
       </c>
       <c r="N4">
-        <v>154.0</v>
+        <v>29.0</v>
       </c>
       <c r="O4">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="P4">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="Q4">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="R4">
-        <v>83.0</v>
+        <v>29.0</v>
       </c>
       <c r="S4">
-        <v>93.0</v>
+        <v>36.0</v>
       </c>
       <c r="T4">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="U4">
-        <v>185.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2336,64 +2336,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="C5">
+        <v>40.0</v>
+      </c>
+      <c r="D5">
+        <v>13.0</v>
+      </c>
+      <c r="E5">
+        <v>30.0</v>
+      </c>
+      <c r="F5">
         <v>41.0</v>
       </c>
-      <c r="D5">
-        <v>172.0</v>
-      </c>
-      <c r="E5">
-        <v>145.0</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>43.0</v>
+      </c>
+      <c r="H5">
+        <v>40.0</v>
+      </c>
+      <c r="I5">
+        <v>10.0</v>
+      </c>
+      <c r="J5">
+        <v>40.0</v>
+      </c>
+      <c r="K5">
+        <v>36.0</v>
+      </c>
+      <c r="L5">
         <v>22.0</v>
       </c>
-      <c r="G5">
-        <v>75.0</v>
-      </c>
-      <c r="H5">
-        <v>66.0</v>
-      </c>
-      <c r="I5">
-        <v>148.0</v>
-      </c>
-      <c r="J5">
-        <v>143.0</v>
-      </c>
-      <c r="K5">
+      <c r="M5">
         <v>10.0</v>
       </c>
-      <c r="L5">
-        <v>3.0</v>
-      </c>
-      <c r="M5">
-        <v>138.0</v>
-      </c>
       <c r="N5">
-        <v>153.0</v>
+        <v>19.0</v>
       </c>
       <c r="O5">
-        <v>112.0</v>
+        <v>21.0</v>
       </c>
       <c r="P5">
-        <v>192.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q5">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="R5">
-        <v>173.0</v>
+        <v>25.0</v>
       </c>
       <c r="S5">
-        <v>131.0</v>
+        <v>15.0</v>
       </c>
       <c r="T5">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="U5">
-        <v>138.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2401,64 +2401,64 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="C6">
-        <v>74.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6">
-        <v>126.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="G6">
         <v>17.0</v>
       </c>
       <c r="H6">
-        <v>129.0</v>
+        <v>38.0</v>
       </c>
       <c r="I6">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
       <c r="J6">
-        <v>125.0</v>
+        <v>31.0</v>
       </c>
       <c r="K6">
-        <v>173.0</v>
+        <v>25.0</v>
       </c>
       <c r="L6">
-        <v>136.0</v>
+        <v>28.0</v>
       </c>
       <c r="M6">
-        <v>73.0</v>
+        <v>30.0</v>
       </c>
       <c r="N6">
-        <v>180.0</v>
+        <v>48.0</v>
       </c>
       <c r="O6">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="P6">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q6">
-        <v>144.0</v>
+        <v>26.0</v>
       </c>
       <c r="R6">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="S6">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="T6">
-        <v>85.0</v>
+        <v>47.0</v>
       </c>
       <c r="U6">
-        <v>165.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
